--- a/experiment result/64_0.2_40_zs30_kappa_lp.xlsx
+++ b/experiment result/64_0.2_40_zs30_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05439677920237714</v>
+        <v>0.008270574271142665</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06624711778157912</v>
+        <v>0.003450397285400788</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07298345122485805</v>
+        <v>0.01677973693187009</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06317449037324591</v>
+        <v>0.01634792172729795</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04544275705285765</v>
+        <v>0.01424287665850654</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06601055477479544</v>
+        <v>0.01759950135747787</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05780284185502347</v>
+        <v>0.003482747020331452</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.04999928932140708</v>
+        <v>0.0124012154544047</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05286320633535004</v>
+        <v>0.01203656102002133</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06712140622392852</v>
+        <v>0.01245587424813298</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09042497684831605</v>
+        <v>0.03203151940226071</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09033882417720387</v>
+        <v>0.0202934600690212</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1048935453707037</v>
+        <v>0.008647989344377697</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1026589760776478</v>
+        <v>0.01456833429834429</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07584815834070906</v>
+        <v>0.01502986540572813</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06591035377814922</v>
+        <v>0.009765374669516587</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.09066845997416081</v>
+        <v>0.02575835192487764</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.06974761020517053</v>
+        <v>0.001560637534324201</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0656239219356464</v>
+        <v>0.02253854687824066</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08011809060917967</v>
+        <v>0.01590636361079514</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05047186145929448</v>
+        <v>0.009261582120478187</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05713576112946663</v>
+        <v>0.003093578810321021</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.08322502280311125</v>
+        <v>0.0208998211817681</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05277893430130431</v>
+        <v>0.01231457236347356</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.04891763970873451</v>
+        <v>0.002766862276548649</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.09555143132315454</v>
+        <v>0.03566051633554383</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05914189250348166</v>
+        <v>0.009786173954599631</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0515208979667112</v>
+        <v>0.02378550764397935</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06248652848333833</v>
+        <v>0.009652362348351739</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.07137912026276261</v>
+        <v>0.01566538047747665</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04372704933932181</v>
+        <v>0.001157790408424443</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.04911291435599453</v>
+        <v>0.001635703810754232</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.09168102513684813</v>
+        <v>0.02315371500317039</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.05086540380204813</v>
+        <v>0.002508189522133157</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.036495270932431</v>
+        <v>0.008682871733949103</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.07445720811615586</v>
+        <v>0.006786044996187822</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.05719422708708348</v>
+        <v>0.004394850477085899</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.08077774488067764</v>
+        <v>0.003599099309458698</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.04027410813566732</v>
+        <v>0.009695150509760215</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.07207380585852534</v>
+        <v>0.02862236306782967</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.08810039200291291</v>
+        <v>0.02823911288605403</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.05002740272035553</v>
+        <v>0.01198421996823034</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.03622449140204611</v>
+        <v>0.01030082910875918</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02847228944344526</v>
+        <v>0.004906495397617915</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.04354118824819678</v>
+        <v>0.007469441050562152</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.06182672976634659</v>
+        <v>0.007589325742453366</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.08237359648466845</v>
+        <v>0.03563117047986695</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.05041660469546235</v>
+        <v>0.00430872020381302</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09152454886478681</v>
+        <v>0.01261848181579039</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.08005138228136705</v>
+        <v>0.0005672405955820256</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0559612451429158</v>
+        <v>0.01387985207314602</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06149160636144233</v>
+        <v>0.01022453374253586</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.03280093117416802</v>
+        <v>4.029340539644738e-05</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.04140148755050937</v>
+        <v>0.0008294089830128565</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08301240184722151</v>
+        <v>0.01736397920096706</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.05553846761953973</v>
+        <v>0.02227327581097894</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.05548166587418728</v>
+        <v>0.005145259009859397</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06095552783433789</v>
+        <v>0.008664725538523269</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.08985770846140825</v>
+        <v>0.02586243419932862</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.07975540819122176</v>
+        <v>0.00117179740441407</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.02931655870595064</v>
+        <v>0.0003598470081671262</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.05174248709557067</v>
+        <v>0.01106436563811591</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0712840917153761</v>
+        <v>0.0154007871371148</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.03803128636376966</v>
+        <v>0.002342647871293744</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.06365448716006425</v>
+        <v>0.02763057156318657</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.04928186533335183</v>
+        <v>0.01490351910734951</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.05126661080027296</v>
+        <v>0.007222804710454389</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.05327783570175944</v>
+        <v>0.004946520068217486</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.05287801902527807</v>
+        <v>0.0008563305371901322</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.04559926825381974</v>
+        <v>0.007459199987703222</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0804470034264915</v>
+        <v>0.00709029935978784</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.06685956377560018</v>
+        <v>0.003826404442258917</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0861462777025838</v>
+        <v>0.02238821752806981</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.063420522874096</v>
+        <v>0.009359748629564421</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.05079889912576639</v>
+        <v>0.03266067285299405</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.06137514570087018</v>
+        <v>0.02760515269289436</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.06268658786168102</v>
+        <v>0.0007872935460821659</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.04769493434545623</v>
+        <v>0.02471435406102059</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.05398040723578675</v>
+        <v>0.01100490867344385</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.04264686267472225</v>
+        <v>0.004651060561873803</v>
       </c>
     </row>
   </sheetData>
